--- a/data/fact_data/Beed/beed_sec_May_19.xlsx
+++ b/data/fact_data/Beed/beed_sec_May_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Beed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B59361-E3EB-1640-BDE1-A2400572B356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C779E5-BB03-2940-8A36-F554A4BE777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beed_Arun_May_19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="88">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -263,9 +263,6 @@
     <t>TOTAL PHYSIOMER :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -293,13 +290,19 @@
     <t>Surveshawar</t>
   </si>
   <si>
-    <t>Anil</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
     <t>product_name</t>
+  </si>
+  <si>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1146,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,6 +1212,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="284" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="326">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1888,13 +1900,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -1903,16 +1915,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1920,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>63</v>
@@ -1935,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -1946,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>63</v>
@@ -1963,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -1974,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>63</v>
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -2000,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>63</v>
@@ -2015,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -2026,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -2043,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -2054,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>63</v>
@@ -2071,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -2082,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>63</v>
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -2108,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>63</v>
@@ -2123,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -2134,7 +2146,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>63</v>
@@ -2149,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -2160,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>63</v>
@@ -2175,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -2186,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>63</v>
@@ -2201,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -2212,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>63</v>
@@ -2227,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -2238,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>63</v>
@@ -2253,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -2264,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>63</v>
@@ -2279,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -2290,7 +2302,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>63</v>
@@ -2302,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -2313,7 +2325,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>63</v>
@@ -2328,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -2339,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>63</v>
@@ -2354,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -2365,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>63</v>
@@ -2380,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -2391,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>63</v>
@@ -2406,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -2417,7 +2429,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>63</v>
@@ -2432,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -2443,7 +2455,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>63</v>
@@ -2455,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -2466,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>63</v>
@@ -2481,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -2492,7 +2504,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>63</v>
@@ -2507,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -2518,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>63</v>
@@ -2533,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -2544,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>63</v>
@@ -2559,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -2570,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>63</v>
@@ -2585,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -2596,7 +2608,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>63</v>
@@ -2611,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -2622,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>63</v>
@@ -2637,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -2648,7 +2660,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>63</v>
@@ -2663,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -2674,7 +2686,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>63</v>
@@ -2689,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -2700,7 +2712,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>63</v>
@@ -2715,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -2726,7 +2738,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>63</v>
@@ -2741,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -2752,7 +2764,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>63</v>
@@ -2767,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -2778,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>63</v>
@@ -2790,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -2801,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>63</v>
@@ -2816,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -2827,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>63</v>
@@ -2842,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -2853,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>63</v>
@@ -2868,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -2879,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>63</v>
@@ -2894,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -2905,7 +2917,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>63</v>
@@ -2920,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -2931,7 +2943,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>63</v>
@@ -2946,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -2957,7 +2969,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>63</v>
@@ -2972,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -2983,7 +2995,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>63</v>
@@ -3002,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -3013,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>63</v>
@@ -3030,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -3041,7 +3053,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>63</v>
@@ -3053,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -3064,7 +3076,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>63</v>
@@ -3076,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -3087,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>63</v>
@@ -3102,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -3113,7 +3125,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>63</v>
@@ -3128,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -3139,7 +3151,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>63</v>
@@ -3156,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -3167,7 +3179,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>63</v>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -3190,7 +3202,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>63</v>
@@ -3205,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -3216,7 +3228,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>63</v>
@@ -3229,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -3240,7 +3252,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>63</v>
@@ -3259,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -3270,7 +3282,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>63</v>
@@ -3283,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -3294,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>63</v>
@@ -3311,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -3322,7 +3334,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>63</v>
@@ -3335,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -3346,7 +3358,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>63</v>
@@ -3361,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -3372,7 +3384,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>63</v>
@@ -3387,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -3398,7 +3410,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>63</v>
@@ -3413,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -3424,7 +3436,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>63</v>
@@ -3439,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -3450,7 +3462,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>63</v>
@@ -3465,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -3476,7 +3488,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>63</v>
@@ -3491,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -3502,7 +3514,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>63</v>
@@ -3517,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -3528,7 +3540,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>63</v>
@@ -3543,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -3554,7 +3566,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>63</v>
@@ -3569,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -3580,7 +3592,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>63</v>
@@ -3592,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -3603,7 +3615,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>63</v>
@@ -3620,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -3631,7 +3643,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>63</v>
@@ -3646,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -3657,7 +3669,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>63</v>
@@ -3672,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -3683,7 +3695,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>63</v>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -3711,7 +3723,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>63</v>
@@ -3727,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -3738,7 +3750,7 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>63</v>
@@ -3750,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -3788,13 +3800,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -3803,16 +3815,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3820,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3">
         <v>27</v>
@@ -3839,7 +3851,7 @@
         <v>3645</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -3850,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3865,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -3876,10 +3888,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3">
         <v>185</v>
@@ -3895,7 +3907,7 @@
         <v>16835</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -3906,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3921,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -3932,10 +3944,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
@@ -3951,7 +3963,7 @@
         <v>3250</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -3962,10 +3974,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3977,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -3988,10 +4000,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
         <v>36</v>
@@ -4007,7 +4019,7 @@
         <v>3168</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -4018,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3">
         <v>204</v>
@@ -4037,7 +4049,7 @@
         <v>11628</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -4048,10 +4060,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4063,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -4074,10 +4086,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4089,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -4100,10 +4112,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -4119,7 +4131,7 @@
         <v>446</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -4130,10 +4142,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3">
         <v>578</v>
@@ -4149,7 +4161,7 @@
         <v>35258</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -4160,10 +4172,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3">
         <v>44</v>
@@ -4179,7 +4191,7 @@
         <v>4576</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -4190,10 +4202,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4205,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -4216,10 +4228,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4228,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -4239,10 +4251,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>305</v>
@@ -4258,7 +4270,7 @@
         <v>21350</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -4269,10 +4281,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>613</v>
@@ -4288,7 +4300,7 @@
         <v>30037</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -4299,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4314,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -4325,10 +4337,10 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4340,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -4351,10 +4363,10 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
@@ -4370,7 +4382,7 @@
         <v>2476</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -4381,10 +4393,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4393,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -4404,10 +4416,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -4423,7 +4435,7 @@
         <v>2552</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -4434,10 +4446,10 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -4453,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -4464,10 +4476,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3">
         <v>19</v>
@@ -4483,7 +4495,7 @@
         <v>4560</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -4494,10 +4506,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
         <v>18</v>
@@ -4513,7 +4525,7 @@
         <v>8640</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -4524,10 +4536,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4539,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -4550,10 +4562,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4565,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -4576,10 +4588,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -4595,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -4606,10 +4618,10 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -4625,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -4636,10 +4648,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4651,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -4662,10 +4674,10 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -4681,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -4692,10 +4704,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -4711,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -4722,10 +4734,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -4741,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -4752,10 +4764,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4764,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -4775,10 +4787,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -4794,7 +4806,7 @@
         <v>2272</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -4805,10 +4817,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4824,7 +4836,7 @@
         <v>1367</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -4835,10 +4847,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4854,7 +4866,7 @@
         <v>955</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -4865,10 +4877,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -4884,7 +4896,7 @@
         <v>336</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -4895,10 +4907,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -4914,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -4925,10 +4937,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -4944,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -4955,10 +4967,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -4974,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -4985,10 +4997,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -5004,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -5015,10 +5027,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -5034,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -5045,10 +5057,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5057,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -5068,10 +5080,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5080,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -5091,10 +5103,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3">
         <v>7</v>
@@ -5110,7 +5122,7 @@
         <v>6888</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -5121,10 +5133,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -5140,7 +5152,7 @@
         <v>785</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -5151,10 +5163,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -5170,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -5181,10 +5193,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5193,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -5204,10 +5216,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3">
         <v>6</v>
@@ -5223,7 +5235,7 @@
         <v>2904</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -5234,10 +5246,10 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5247,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -5258,10 +5270,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3">
         <v>8</v>
@@ -5277,7 +5289,7 @@
         <v>6152</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -5288,10 +5300,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5301,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -5312,10 +5324,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="3">
         <v>17</v>
@@ -5331,7 +5343,7 @@
         <v>2635</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -5342,10 +5354,10 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5355,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -5366,10 +5378,10 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5381,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -5392,10 +5404,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5407,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -5418,10 +5430,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5433,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -5444,10 +5456,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5459,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -5470,10 +5482,10 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5485,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -5496,10 +5508,10 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5511,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -5522,10 +5534,10 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5537,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -5548,10 +5560,10 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5563,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -5574,10 +5586,10 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5589,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -5600,10 +5612,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5612,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -5623,10 +5635,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -5642,7 +5654,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -5653,10 +5665,10 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5668,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -5679,10 +5691,10 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -5698,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -5709,10 +5721,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3">
         <v>20</v>
@@ -5728,7 +5740,7 @@
         <v>3400</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -5739,10 +5751,10 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="3">
         <v>11</v>
@@ -5755,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -5766,10 +5778,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5778,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -5797,7 +5809,1965 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBE6F3-4A5E-5E4C-80AB-257483E97F08}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="3"/>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2" t="e">
+        <f>#REF!*F2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="3"/>
+      <c r="F3">
+        <v>237</v>
+      </c>
+      <c r="G3" t="e">
+        <f>#REF!*F3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4" t="e">
+        <f>#REF!*F4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="3"/>
+      <c r="F5">
+        <v>344</v>
+      </c>
+      <c r="G5" t="e">
+        <f>#REF!*F5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="3"/>
+      <c r="F6">
+        <v>130</v>
+      </c>
+      <c r="G6" t="e">
+        <f>#REF!*F6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="3"/>
+      <c r="F7">
+        <v>244</v>
+      </c>
+      <c r="G7" t="e">
+        <f>#REF!*F7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8" t="e">
+        <f>#REF!*F8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="3"/>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9" t="e">
+        <f>#REF!*F9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27">
+        <v>63</v>
+      </c>
+      <c r="G10" t="e">
+        <f>#REF!*F10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="27">
+        <v>50</v>
+      </c>
+      <c r="G11" t="e">
+        <f>#REF!*F11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3"/>
+      <c r="F12">
+        <v>223</v>
+      </c>
+      <c r="G12" t="e">
+        <f>#REF!*F12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="30">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>61</v>
+      </c>
+      <c r="G13" t="e">
+        <f>#REF!*F13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="30">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>104</v>
+      </c>
+      <c r="G14" t="e">
+        <f>#REF!*F14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15" t="e">
+        <f>#REF!*F15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="3"/>
+      <c r="G16" t="e">
+        <f>#REF!*F16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="30">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>181</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17" t="e">
+        <f>#REF!*F17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="30">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18" t="e">
+        <f>#REF!*F18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="3"/>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19" t="e">
+        <f>#REF!*F19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="3"/>
+      <c r="F20">
+        <v>399</v>
+      </c>
+      <c r="G20" t="e">
+        <f>#REF!*F20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>619</v>
+      </c>
+      <c r="G21" t="e">
+        <f>#REF!*F21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="3"/>
+      <c r="G22" t="e">
+        <f>#REF!*F22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="30">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>638</v>
+      </c>
+      <c r="G23" t="e">
+        <f>#REF!*F23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>68</v>
+      </c>
+      <c r="G24" t="e">
+        <f>#REF!*F24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+      <c r="G25" t="e">
+        <f>#REF!*F25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="30">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>480</v>
+      </c>
+      <c r="G26" t="e">
+        <f>#REF!*F26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="3"/>
+      <c r="F27">
+        <v>830</v>
+      </c>
+      <c r="G27" t="e">
+        <f>#REF!*F27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="3"/>
+      <c r="F28">
+        <v>430</v>
+      </c>
+      <c r="G28" t="e">
+        <f>#REF!*F28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>360</v>
+      </c>
+      <c r="G29" t="e">
+        <f>#REF!*F29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14">
+      <c r="A30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>269</v>
+      </c>
+      <c r="G30" t="e">
+        <f>#REF!*F30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>633</v>
+      </c>
+      <c r="G31" t="e">
+        <f>#REF!*F31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14">
+      <c r="A32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>789</v>
+      </c>
+      <c r="G32" t="e">
+        <f>#REF!*F32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14">
+      <c r="A33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="3"/>
+      <c r="F33">
+        <v>865</v>
+      </c>
+      <c r="G33" t="e">
+        <f>#REF!*F33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="3"/>
+      <c r="F34">
+        <v>863</v>
+      </c>
+      <c r="G34" t="e">
+        <f>#REF!*F34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="3"/>
+      <c r="G35" t="e">
+        <f>#REF!*F35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1136</v>
+      </c>
+      <c r="G36" t="e">
+        <f>#REF!*F36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="30">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1367</v>
+      </c>
+      <c r="G37" t="e">
+        <f>#REF!*F37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>955</v>
+      </c>
+      <c r="G38" t="e">
+        <f>#REF!*F38</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>168</v>
+      </c>
+      <c r="G39" t="e">
+        <f>#REF!*F39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="3"/>
+      <c r="F40">
+        <v>1287</v>
+      </c>
+      <c r="G40" t="e">
+        <f>#REF!*F40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="3"/>
+      <c r="F41">
+        <v>1358</v>
+      </c>
+      <c r="G41" t="e">
+        <f>#REF!*F41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14">
+      <c r="A42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1270</v>
+      </c>
+      <c r="G42" t="e">
+        <f>#REF!*F42</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14">
+      <c r="A43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1184</v>
+      </c>
+      <c r="G43" t="e">
+        <f>#REF!*F43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14">
+      <c r="A44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>755</v>
+      </c>
+      <c r="G44" t="e">
+        <f>#REF!*F44</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="3"/>
+      <c r="G45" t="e">
+        <f>#REF!*F45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="3"/>
+      <c r="G46" t="e">
+        <f>#REF!*F46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="30">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>984</v>
+      </c>
+      <c r="G47" t="e">
+        <f>#REF!*F47</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>157</v>
+      </c>
+      <c r="G48" t="e">
+        <f>#REF!*F48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>223</v>
+      </c>
+      <c r="G49" t="e">
+        <f>#REF!*F49</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="3"/>
+      <c r="G50" t="e">
+        <f>#REF!*F50</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="3">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>484</v>
+      </c>
+      <c r="G51" t="e">
+        <f>#REF!*F51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="27"/>
+      <c r="G52" t="e">
+        <f>#REF!*F52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>769</v>
+      </c>
+      <c r="G53" t="e">
+        <f>#REF!*F53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="27"/>
+      <c r="G54" t="e">
+        <f>#REF!*F54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>155</v>
+      </c>
+      <c r="G55" t="e">
+        <f>#REF!*F55</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="27"/>
+      <c r="G56" t="e">
+        <f>#REF!*F56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14">
+      <c r="A57" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="3"/>
+      <c r="F57">
+        <v>98</v>
+      </c>
+      <c r="G57" t="e">
+        <f>#REF!*F57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14">
+      <c r="A58" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="3"/>
+      <c r="F58">
+        <v>59</v>
+      </c>
+      <c r="G58" t="e">
+        <f>#REF!*F58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14">
+      <c r="A59" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="27">
+        <v>112</v>
+      </c>
+      <c r="G59" t="e">
+        <f>#REF!*F59</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14">
+      <c r="A60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="27">
+        <v>225</v>
+      </c>
+      <c r="G60" t="e">
+        <f>#REF!*F60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14">
+      <c r="A61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="27">
+        <v>80</v>
+      </c>
+      <c r="G61" t="e">
+        <f>#REF!*F61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="27">
+        <v>80</v>
+      </c>
+      <c r="G62" t="e">
+        <f>#REF!*F62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14">
+      <c r="A63" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="27">
+        <v>80</v>
+      </c>
+      <c r="G63" t="e">
+        <f>#REF!*F63</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14">
+      <c r="A64" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="27">
+        <v>125</v>
+      </c>
+      <c r="G64" t="e">
+        <f>#REF!*F64</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14">
+      <c r="A65" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="27">
+        <v>127</v>
+      </c>
+      <c r="G65" t="e">
+        <f>#REF!*F65</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14">
+      <c r="A66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="3"/>
+      <c r="G66" t="e">
+        <f>#REF!*F66</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="30">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="27">
+        <v>30</v>
+      </c>
+      <c r="G67" t="e">
+        <f>#REF!*F67</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="27">
+        <v>345</v>
+      </c>
+      <c r="G68" t="e">
+        <f>#REF!*F68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>48</v>
+      </c>
+      <c r="G69" t="e">
+        <f>#REF!*F69</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14">
+      <c r="A70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="3">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <v>170</v>
+      </c>
+      <c r="G70" t="e">
+        <f>#REF!*F70</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" t="e">
+        <f>#REF!*F71</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="3"/>
+      <c r="G72" t="e">
+        <f>#REF!*F72</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="E73" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5808,13 +7778,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -5823,16 +7793,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5840,25 +7810,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
       <c r="F2">
         <v>135</v>
       </c>
       <c r="G2">
-        <f>D2*F2</f>
-        <v>0</v>
+        <f>F2*D2</f>
+        <v>675</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5866,25 +7840,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>237</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">D3*F3</f>
+        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5892,29 +7870,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>91</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>5733</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5922,10 +7900,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -5937,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5948,25 +7926,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
       <c r="F6">
         <v>130</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5974,13 +7956,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>244</v>
       </c>
@@ -5989,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6000,29 +7986,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>88</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>1760</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6030,25 +8016,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37</v>
+      </c>
       <c r="F9">
         <v>57</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6056,13 +8046,17 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="27">
         <v>63</v>
       </c>
@@ -6071,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6082,13 +8076,17 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="27">
         <v>50</v>
       </c>
@@ -6097,10 +8095,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6108,25 +8106,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12">
         <v>223</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6134,29 +8136,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="E13" s="3">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="F13">
         <v>61</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>4941</v>
+        <v>17446</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6164,29 +8166,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>104</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4056</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14">
@@ -6194,29 +8196,29 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>49</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6224,22 +8226,26 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6247,29 +8253,29 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3">
-        <v>181</v>
+        <v>406</v>
       </c>
       <c r="F17">
         <v>70</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>8610</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6277,29 +8283,29 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="E18" s="3">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <v>49</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1764</v>
+        <v>10927</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6307,25 +8313,29 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
       <c r="F19">
         <v>49</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6333,13 +8343,17 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
       <c r="F20">
         <v>399</v>
       </c>
@@ -6348,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14">
@@ -6359,29 +8373,29 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>619</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6190</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6389,22 +8403,26 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6412,13 +8430,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
@@ -6428,13 +8446,13 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>638</v>
+        <v>2552</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6442,29 +8460,29 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>68</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6472,29 +8490,29 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>240</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6502,29 +8520,29 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>480</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6532,25 +8550,29 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
       <c r="F27">
         <v>830</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6558,13 +8580,17 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>430</v>
       </c>
@@ -6573,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6584,13 +8610,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -6600,13 +8626,13 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14">
@@ -6614,29 +8640,29 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6644,29 +8670,29 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>633</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14">
@@ -6674,29 +8700,29 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>789</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1578</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14">
@@ -6704,13 +8730,17 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
       <c r="F33">
         <v>865</v>
       </c>
@@ -6719,10 +8749,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6730,25 +8760,29 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
       <c r="F34">
         <v>863</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6756,22 +8790,26 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6779,13 +8817,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -6795,13 +8833,13 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4544</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6809,29 +8847,29 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1367</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>1367</v>
+        <v>2734</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6839,29 +8877,29 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>955</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6869,29 +8907,29 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>168</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6899,13 +8937,17 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
       <c r="F40">
         <v>1287</v>
       </c>
@@ -6914,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6925,25 +8967,29 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
       <c r="F41">
         <v>1358</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14">
@@ -6951,29 +8997,29 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>1270</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14">
@@ -6981,13 +9027,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -6997,13 +9043,13 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14">
@@ -7011,29 +9057,29 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7041,22 +9087,26 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7064,22 +9114,26 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7087,29 +9141,29 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>984</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>2952</v>
+        <v>9840</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7117,29 +9171,29 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <v>157</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7147,16 +9201,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>223</v>
@@ -7166,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7177,22 +9231,26 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7200,29 +9258,29 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <v>484</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2420</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7230,23 +9288,27 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7254,29 +9316,29 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>769</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7690</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7284,25 +9346,27 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
       <c r="F54" s="27"/>
-      <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7310,29 +9374,29 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>155</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7340,23 +9404,27 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14">
@@ -7364,13 +9432,17 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>98</v>
       </c>
@@ -7379,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14">
@@ -7390,13 +9462,17 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>59</v>
       </c>
@@ -7405,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14">
@@ -7416,13 +9492,17 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
       <c r="F59" s="27">
         <v>112</v>
       </c>
@@ -7431,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14">
@@ -7442,13 +9522,17 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="27">
         <v>225</v>
       </c>
@@ -7457,10 +9541,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14">
@@ -7468,13 +9552,17 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
       <c r="F61" s="27">
         <v>80</v>
       </c>
@@ -7483,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7494,13 +9582,17 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
       <c r="F62" s="27">
         <v>80</v>
       </c>
@@ -7509,10 +9601,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14">
@@ -7520,13 +9612,17 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
       <c r="F63" s="27">
         <v>80</v>
       </c>
@@ -7535,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14">
@@ -7546,13 +9642,17 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
       <c r="F64" s="27">
         <v>125</v>
       </c>
@@ -7561,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14">
@@ -7572,13 +9672,17 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
       <c r="F65" s="27">
         <v>127</v>
       </c>
@@ -7587,10 +9691,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14">
@@ -7598,22 +9702,26 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7621,29 +9729,29 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
         <v>3</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
       </c>
       <c r="F67" s="27">
         <v>30</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">D67*F67</f>
-        <v>90</v>
+        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
+        <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7651,13 +9759,17 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
       <c r="F68" s="27">
         <v>345</v>
       </c>
@@ -7666,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7677,16 +9789,16 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F69">
         <v>48</v>
@@ -7696,10 +9808,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14">
@@ -7707,16 +9819,16 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F70">
         <v>170</v>
@@ -7726,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7737,2150 +9849,10 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="I71" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
-  <dimension ref="A1:I73"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>135</v>
-      </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>675</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>237</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>5733</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5">
-        <v>344</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>244</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>88</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="3">
-        <v>63</v>
-      </c>
-      <c r="E9" s="3">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>3591</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>63</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>223</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>2230</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3">
-        <v>286</v>
-      </c>
-      <c r="E13" s="3">
-        <v>134</v>
-      </c>
-      <c r="F13">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>17446</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>104</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>4056</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14">
-      <c r="A15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="3">
-        <v>123</v>
-      </c>
-      <c r="E17" s="3">
-        <v>406</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>8610</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3">
-        <v>223</v>
-      </c>
-      <c r="E18" s="3">
-        <v>234</v>
-      </c>
-      <c r="F18">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>10927</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>399</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14">
-      <c r="A21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>619</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>6190</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>638</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>2552</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>68</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>240</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>480</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>1920</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>830</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>830</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>430</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>360</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14">
-      <c r="A30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>269</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2152</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>633</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1266</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14">
-      <c r="A32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>789</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1578</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14">
-      <c r="A33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>865</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>863</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>1726</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1136</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>4544</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1367</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>2734</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>955</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>955</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="3">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>1287</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1358</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>1358</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14">
-      <c r="A42" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>1270</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>1270</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14">
-      <c r="A43" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1184</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>1184</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14">
-      <c r="A44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>755</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>1510</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="3">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>984</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>9840</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="3">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5</v>
-      </c>
-      <c r="F48">
-        <v>157</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>471</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>223</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="3">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>484</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>2420</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="3">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>769</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>7690</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="3">
-        <v>15</v>
-      </c>
-      <c r="E55" s="3">
-        <v>17</v>
-      </c>
-      <c r="F55">
-        <v>155</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>2325</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14">
-      <c r="A57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>98</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14">
-      <c r="A58" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>59</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14">
-      <c r="A59" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="27">
-        <v>112</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14">
-      <c r="A60" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="27">
-        <v>225</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14">
-      <c r="A61" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="27">
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="27">
-        <v>80</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14">
-      <c r="A63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="27">
-        <v>80</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14">
-      <c r="A64" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="27">
-        <v>125</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14">
-      <c r="A65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="27">
-        <v>127</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14">
-      <c r="A66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>3</v>
-      </c>
-      <c r="F67" s="27">
-        <v>30</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="27">
-        <v>345</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>20</v>
-      </c>
-      <c r="F69">
-        <v>48</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14">
-      <c r="A70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>9</v>
-      </c>
-      <c r="F70">
-        <v>170</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>84</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -9889,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -9900,10 +9872,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" s="3">
         <v>145966</v>
@@ -9916,18 +9888,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="I73" s="28">
-        <v>2019</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
